--- a/cells.xlsx
+++ b/cells.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deboltm\Documents\Projects\ugamer.github.io-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54.f8\Documents\ugamer.github.io-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11592"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Want" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>power strip</t>
   </si>
@@ -39,27 +39,15 @@
     <t>tv leds</t>
   </si>
   <si>
-    <t>flandre nendoroid</t>
-  </si>
-  <si>
-    <t>breath of the wild link nendoroid</t>
-  </si>
-  <si>
     <t>switch stand</t>
   </si>
   <si>
     <t>type c to hdmi</t>
   </si>
   <si>
-    <t>sonic nendoroid</t>
-  </si>
-  <si>
     <t>white hoodie</t>
   </si>
   <si>
-    <t>lucina figma</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
@@ -96,12 +84,6 @@
     <t>vr headset</t>
   </si>
   <si>
-    <t>your name nendoroids</t>
-  </si>
-  <si>
-    <t>no game no life nendoroids</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -150,7 +132,10 @@
     <t>SEARS</t>
   </si>
   <si>
-    <t>Skullcandy - HESH 3 Wireless Over-the-Ear Headphones - Black</t>
+    <t>bluetooth speaker</t>
+  </si>
+  <si>
+    <t>7.1 surround sound, bluetooth, over-the-ear headphones</t>
   </si>
 </sst>
 </file>
@@ -502,43 +487,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="51.33203125" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="51.28515625" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="24" width="8.6640625" customWidth="1"/>
+    <col min="11" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" customHeight="1">
+    <row r="1" spans="1:10" ht="28.9" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.4">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -559,24 +544,24 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1332.46</v>
-      </c>
-      <c r="D3" s="4">
-        <v>999</v>
+        <v>24.99</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -585,24 +570,24 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>189.99</v>
       </c>
       <c r="D4" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -611,24 +596,24 @@
         <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>9.69</v>
       </c>
       <c r="D5" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -637,24 +622,24 @@
         <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>32.5</v>
+        <v>9.99</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -663,24 +648,24 @@
         <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>89.99</v>
+        <v>19.95</v>
       </c>
       <c r="D7" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -689,24 +674,24 @@
         <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>189.99</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -715,69 +700,69 @@
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>9.69</v>
+        <v>13.99</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>9.99</v>
+        <v>37.08</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>12.99</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>19.95</v>
+        <v>13.99</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -787,201 +772,146 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4">
-      <c r="A13" s="3" t="s">
-        <v>32</v>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>28.77</v>
       </c>
       <c r="D13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>16.989999999999998</v>
+        <v>243</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>32.5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
         <v>7</v>
       </c>
-      <c r="B15">
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>14.91</v>
-      </c>
-      <c r="D15" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.4">
-      <c r="A16" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16">
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="C16">
-        <v>15.7</v>
-      </c>
-      <c r="D16" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.4">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>13.99</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.4">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>37.08</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.4">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>12.99</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>13.99</v>
+        <v>89.99</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>28.77</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
+        <v>1332.46</v>
+      </c>
+      <c r="D21" s="4">
+        <v>999</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>243</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>12.28</v>
-      </c>
-      <c r="D23" s="1">
-        <v>20</v>
-      </c>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>14.66</v>
-      </c>
-      <c r="D24" s="1">
-        <v>20</v>
-      </c>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>18.690000000000001</v>
-      </c>
-      <c r="D25" s="1">
-        <v>20</v>
-      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>17.8</v>
-      </c>
-      <c r="D26" s="1">
-        <v>20</v>
-      </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
@@ -1957,10 +1887,10 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:D26">
-    <sortCondition descending="1" ref="B2:B26"/>
-    <sortCondition ref="C2:C26"/>
-    <sortCondition ref="D2:D26"/>
+  <sortState ref="A2:D21">
+    <sortCondition ref="D2:D21"/>
+    <sortCondition descending="1" ref="B2:B21"/>
+    <sortCondition ref="C2:C21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/cells.xlsx
+++ b/cells.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54.f8\Documents\ugamer.github.io-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deboltm\Documents\GitHub\ugamer.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7752" windowHeight="6516"/>
   </bookViews>
   <sheets>
     <sheet name="Want" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>power strip</t>
   </si>
@@ -63,9 +63,6 @@
     <t>gamecube adapter</t>
   </si>
   <si>
-    <t>s8 case</t>
-  </si>
-  <si>
     <t>computer</t>
   </si>
   <si>
@@ -136,6 +133,12 @@
   </si>
   <si>
     <t>7.1 surround sound, bluetooth, over-the-ear headphones</t>
+  </si>
+  <si>
+    <t>Phone case</t>
+  </si>
+  <si>
+    <t>Phone Skin</t>
   </si>
 </sst>
 </file>
@@ -487,41 +490,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="51.28515625" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" customWidth="1"/>
+    <col min="8" max="9" width="8.6640625" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="24" width="8.7109375" customWidth="1"/>
+    <col min="11" max="24" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.9" customHeight="1">
+    <row r="1" spans="1:10" ht="28.95" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.4">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -529,7 +532,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>534.95000000000005</v>
+        <v>399.99</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -544,12 +547,12 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -570,24 +573,24 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>189.99</v>
+        <v>7.99</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -596,24 +599,24 @@
         <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.4">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>9.69</v>
+        <v>8.99</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -622,24 +625,24 @@
         <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.4">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>9.99</v>
+        <v>189.99</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -648,24 +651,24 @@
         <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>19.95</v>
+        <v>9.69</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -674,24 +677,24 @@
         <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>16.989999999999998</v>
+        <v>9.99</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -700,69 +703,69 @@
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>13.99</v>
+        <v>19.95</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>37.08</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.4">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
       <c r="C11">
-        <v>12.99</v>
+        <v>13.99</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.4">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>13.99</v>
+        <v>37.08</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -772,79 +775,79 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="14.4">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>28.77</v>
+        <v>12.99</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="14.4">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>243</v>
+        <v>13.99</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="14.4">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>28.77</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.4">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>243</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.4">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>10</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>32.5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
+    <row r="18" spans="1:4" ht="14.4">
+      <c r="A18" t="s">
+        <v>8</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -856,29 +859,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" ht="14.4">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.4">
+      <c r="A20" t="s">
         <v>4</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>10</v>
       </c>
       <c r="B20">
         <v>9</v>
       </c>
       <c r="C20">
-        <v>89.99</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1">
         <v>7</v>
@@ -886,20 +889,31 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>89.99</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1332.46</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="4">
         <v>999</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="D23" s="1"/>
@@ -1887,10 +1901,10 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:D21">
-    <sortCondition ref="D2:D21"/>
-    <sortCondition descending="1" ref="B2:B21"/>
-    <sortCondition ref="C2:C21"/>
+  <sortState ref="A2:D997">
+    <sortCondition ref="D2:D997"/>
+    <sortCondition descending="1" ref="B2:B997"/>
+    <sortCondition ref="C2:C997"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/cells.xlsx
+++ b/cells.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deboltm\Documents\GitHub\ugamer.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\ugamer.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81AFEBC-DA5D-4B13-BE1E-A934D058F77E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7752" windowHeight="6516"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7755" windowHeight="6510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Want" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -144,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -487,27 +488,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="51.33203125" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="51.28515625" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="24" width="8.6640625" customWidth="1"/>
+    <col min="11" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.95" customHeight="1">
+    <row r="1" spans="1:10" ht="28.9" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -524,7 +525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -550,7 +551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -576,7 +577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -602,7 +603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -628,7 +629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -654,7 +655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -680,7 +681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -706,7 +707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -723,7 +724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -740,7 +741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -757,7 +758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -775,7 +776,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -789,7 +790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.4">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -803,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -817,7 +818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.4">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -831,7 +832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.4">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -845,7 +846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.4">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -859,7 +860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.4">
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -873,7 +874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.4">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>4</v>
       </c>

--- a/cells.xlsx
+++ b/cells.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\ugamer.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deboltm\Documents\GitHub\ugamer.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81AFEBC-DA5D-4B13-BE1E-A934D058F77E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7755" windowHeight="6510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7752" windowHeight="6516"/>
   </bookViews>
   <sheets>
     <sheet name="Want" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>power strip</t>
   </si>
@@ -140,12 +139,15 @@
   </si>
   <si>
     <t>Phone Skin</t>
+  </si>
+  <si>
+    <t>Bluetooth Adapter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -488,27 +490,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="51.28515625" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" customWidth="1"/>
+    <col min="8" max="9" width="8.6640625" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="24" width="8.7109375" customWidth="1"/>
+    <col min="11" max="24" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.9" customHeight="1">
+    <row r="1" spans="1:10" ht="28.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -525,7 +527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="14.4">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -533,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>399.99</v>
+        <v>499.99</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -551,7 +553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="14.4">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -577,7 +579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="14.4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -603,7 +605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="14.4">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -629,15 +631,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="14.4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>189.99</v>
+        <v>15.69</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -655,15 +657,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="14.4">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>9.69</v>
+        <v>189.99</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -681,15 +683,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="14.4">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>9.99</v>
+        <v>9.69</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -707,15 +709,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="14.4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>19.95</v>
+        <v>9.99</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -724,15 +726,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="14.4">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
       <c r="C10">
-        <v>16.989999999999998</v>
+        <v>19.95</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -741,15 +743,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="14.4">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>13.99</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -758,15 +760,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="14.4">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12">
-        <v>37.08</v>
+        <v>12.99</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -776,63 +778,63 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="14.4">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
       <c r="C13">
-        <v>12.99</v>
+        <v>19.95</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="14.4">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>13.99</v>
+        <v>12.99</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="14.4">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>28.77</v>
+        <v>13.99</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="14.4">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>243</v>
+        <v>28.7</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="14.4">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -846,9 +848,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>8</v>
+    <row r="18" spans="1:4" ht="14.4">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -860,29 +862,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
+    <row r="19" spans="1:4" ht="14.4">
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
       <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1">
         <v>7</v>
       </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:4" ht="14.4">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>9</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>89.99</v>
       </c>
       <c r="D20" s="1">
         <v>7</v>
@@ -890,16 +892,16 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>223.41</v>
+      </c>
+      <c r="D21" s="1">
         <v>9</v>
-      </c>
-      <c r="C21">
-        <v>89.99</v>
-      </c>
-      <c r="D21" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
@@ -910,20 +912,29 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>1332.46</v>
+        <v>1310.0899999999999</v>
       </c>
       <c r="D22" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D23" s="1"/>
-    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D25" s="1"/>
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="D26" s="1"/>
@@ -1902,10 +1913,10 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:D997">
-    <sortCondition ref="D2:D997"/>
-    <sortCondition descending="1" ref="B2:B997"/>
-    <sortCondition ref="C2:C997"/>
+  <sortState ref="A2:D22">
+    <sortCondition ref="D2:D22"/>
+    <sortCondition descending="1" ref="B2:B22"/>
+    <sortCondition ref="C2:C22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/cells.xlsx
+++ b/cells.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>power strip</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>white hoodie</t>
-  </si>
-  <si>
-    <t>Phone</t>
   </si>
   <si>
     <t>watch</t>
@@ -494,7 +491,7 @@
   <dimension ref="A1:J997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D22"/>
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -512,30 +509,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.95" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.4">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
+      <c r="A2" t="s">
+        <v>35</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>499.99</v>
+        <v>24.99</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -550,24 +547,24 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>24.99</v>
+        <v>7.99</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -576,12 +573,12 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -593,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -602,24 +599,24 @@
         <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.4">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>8.99</v>
+        <v>15.69</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -628,24 +625,24 @@
         <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.4">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>15.69</v>
+        <v>189.99</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -654,24 +651,24 @@
         <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>189.99</v>
+        <v>9.69</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -680,24 +677,24 @@
         <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.4">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>9.69</v>
+        <v>9.99</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -706,69 +703,69 @@
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.4">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>9.99</v>
+        <v>19.95</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>19.95</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>16.989999999999998</v>
+        <v>12.99</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.4">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12">
-        <v>12.99</v>
+        <v>19.95</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -780,13 +777,13 @@
     </row>
     <row r="13" spans="1:10" ht="14.4">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>19.95</v>
+        <v>12.99</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -794,13 +791,13 @@
     </row>
     <row r="14" spans="1:10" ht="14.4">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>12.99</v>
+        <v>13.99</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -808,13 +805,13 @@
     </row>
     <row r="15" spans="1:10" ht="14.4">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>13.99</v>
+        <v>28.7</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -822,55 +819,55 @@
     </row>
     <row r="16" spans="1:10" ht="14.4">
       <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.4">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
         <v>18</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>28.7</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.4">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
+      <c r="A18" t="s">
+        <v>4</v>
       </c>
       <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
         <v>7</v>
-      </c>
-      <c r="C18">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>89.99</v>
       </c>
       <c r="D19" s="1">
         <v>7</v>
@@ -878,46 +875,33 @@
     </row>
     <row r="20" spans="1:4" ht="14.4">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>223.41</v>
+      </c>
+      <c r="D20" s="1">
         <v>9</v>
-      </c>
-      <c r="C20">
-        <v>89.99</v>
-      </c>
-      <c r="D20" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>223.41</v>
-      </c>
-      <c r="D21" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="C22">
         <v>1310.0899999999999</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D21" s="4">
         <v>999</v>
       </c>
     </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="23" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="D24" s="1"/>
@@ -1913,10 +1897,10 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:D22">
-    <sortCondition ref="D2:D22"/>
-    <sortCondition descending="1" ref="B2:B22"/>
-    <sortCondition ref="C2:C22"/>
+  <sortState ref="A2:D21">
+    <sortCondition ref="D2:D21"/>
+    <sortCondition descending="1" ref="B2:B21"/>
+    <sortCondition ref="C2:C21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/cells.xlsx
+++ b/cells.xlsx
@@ -132,13 +132,13 @@
     <t>7.1 surround sound, bluetooth, over-the-ear headphones</t>
   </si>
   <si>
-    <t>Phone case</t>
-  </si>
-  <si>
     <t>Phone Skin</t>
   </si>
   <si>
     <t>Bluetooth Adapter</t>
+  </si>
+  <si>
+    <t>Screen Protector</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:J997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -552,13 +552,13 @@
     </row>
     <row r="3" spans="1:10" ht="14.4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>7.99</v>
+        <v>7.85</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="4" spans="1:10" ht="14.4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="5" spans="1:10" ht="14.4">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>9</v>

--- a/cells.xlsx
+++ b/cells.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>power strip</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Screen Protector</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>BestBuy (ONLINE)</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
   <dimension ref="A1:J997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -526,16 +532,16 @@
     </row>
     <row r="2" spans="1:10" ht="14.4">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>24.99</v>
+        <v>7.85</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -552,13 +558,13 @@
     </row>
     <row r="3" spans="1:10" ht="14.4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>9</v>
       </c>
       <c r="C3">
-        <v>7.85</v>
+        <v>7.99</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -578,13 +584,13 @@
     </row>
     <row r="4" spans="1:10" ht="14.4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>7.99</v>
+        <v>9.99</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -604,13 +610,13 @@
     </row>
     <row r="5" spans="1:10" ht="14.4">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>15.69</v>
+        <v>10.99</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -630,13 +636,13 @@
     </row>
     <row r="6" spans="1:10" ht="14.4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>189.99</v>
+        <v>12.99</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -656,13 +662,13 @@
     </row>
     <row r="7" spans="1:10" ht="14.4">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>9.69</v>
+        <v>13.99</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -674,21 +680,21 @@
         <v>7</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>80.989999999999995</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.4">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>9.99</v>
+        <v>15.69</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -708,132 +714,125 @@
     </row>
     <row r="9" spans="1:10" ht="14.4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>19.95</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
+      <c r="I9">
+        <v>150</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
       <c r="C10">
-        <v>16.989999999999998</v>
+        <v>19.95</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11">
-        <v>12.99</v>
+        <v>19.95</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.4">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>19.95</v>
+        <v>24.99</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="I12">
-        <f>SUM(I2:I8)</f>
-        <v>310</v>
+      <c r="G12" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.4">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>12.99</v>
+        <v>28.6</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
+      <c r="I13">
+        <f>SUM(I2:I8)</f>
+        <v>290.99</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="14.4">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>13.99</v>
+        <v>190.3</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>28.7</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="15" spans="1:10" ht="14.4"/>
     <row r="16" spans="1:10" ht="14.4">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
+        <v>841.3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>999</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
+      <c r="A17" t="s">
+        <v>8</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -847,86 +846,111 @@
     </row>
     <row r="18" spans="1:4" ht="14.4">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1">
-        <v>7</v>
+        <v>9999999</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4">
       <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>239</v>
+      </c>
+      <c r="D19" s="1">
         <v>9</v>
       </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>89.99</v>
-      </c>
-      <c r="D19" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.4">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>223.41</v>
-      </c>
-      <c r="D20" s="1">
-        <v>9</v>
-      </c>
-    </row>
+    </row>
+    <row r="20" spans="1:4" ht="14.4"/>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
         <v>10</v>
       </c>
-      <c r="C21">
-        <v>1310.0899999999999</v>
-      </c>
-      <c r="D21" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1"/>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7</v>
+      </c>
+    </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D24" s="1"/>
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>89.99</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
         <v>8</v>
       </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
       <c r="C25">
-        <v>18</v>
+        <v>9.69</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <f>SUM($C$21:$C$25)</f>
+        <v>149.68</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D28" s="1"/>
-    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="30" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:4" ht="15.75" customHeight="1"/>
@@ -1897,10 +1921,10 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:D21">
-    <sortCondition ref="D2:D21"/>
-    <sortCondition descending="1" ref="B2:B21"/>
-    <sortCondition ref="C2:C21"/>
+  <sortState ref="A2:D14">
+    <sortCondition ref="C2:C14"/>
+    <sortCondition descending="1" ref="B2:B14"/>
+    <sortCondition ref="D2:D14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/cells.xlsx
+++ b/cells.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>power strip</t>
   </si>
@@ -108,12 +108,6 @@
     <t>GameStop</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>left joy con</t>
-  </si>
-  <si>
     <t>Tyrone Mall / Vans Store</t>
   </si>
   <si>
@@ -145,13 +139,34 @@
   </si>
   <si>
     <t>BestBuy (ONLINE)</t>
+  </si>
+  <si>
+    <t>gift card</t>
+  </si>
+  <si>
+    <t>skyrocket</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>Sears</t>
+  </si>
+  <si>
+    <t>PopSocket</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -176,6 +191,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -206,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -214,6 +236,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +520,7 @@
   <dimension ref="A1:J997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G12" sqref="G12:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -532,7 +555,7 @@
     </row>
     <row r="2" spans="1:10" ht="14.4">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -558,7 +581,7 @@
     </row>
     <row r="3" spans="1:10" ht="14.4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -569,17 +592,17 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.4">
@@ -595,14 +618,14 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
       <c r="H4">
         <v>7</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -622,16 +645,16 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.4">
@@ -647,14 +670,11 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="I6">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="J6" t="s">
         <v>28</v>
@@ -673,43 +693,13 @@
       <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>80.989999999999995</v>
-      </c>
-      <c r="J7" t="s">
-        <v>41</v>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.4">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>15.69</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.4">
@@ -725,11 +715,8 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="I9">
-        <v>150</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
+      <c r="G9" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4">
@@ -745,8 +732,12 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>32</v>
+      <c r="G10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <f>SUM(I2:I9)</f>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.4">
@@ -762,13 +753,10 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="12" spans="1:10" ht="14.4">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -780,7 +768,16 @@
         <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.4">
@@ -796,9 +793,17 @@
       <c r="D13" s="1">
         <v>2</v>
       </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
       <c r="I13">
-        <f>SUM(I2:I8)</f>
-        <v>290.99</v>
+        <v>15.69</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.4">
@@ -814,8 +819,33 @@
       <c r="D14" s="1">
         <v>2</v>
       </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4"/>
+    <row r="15" spans="1:10" ht="14.4">
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="16" spans="1:10" ht="14.4">
       <c r="A16" t="s">
         <v>13</v>
@@ -829,8 +859,20 @@
       <c r="D16" s="4">
         <v>999</v>
       </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" ht="14.4">
+    <row r="17" spans="1:10" ht="14.4">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -843,10 +885,22 @@
       <c r="D17" s="1">
         <v>5</v>
       </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>89.99</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" ht="14.4">
+    <row r="18" spans="1:10" ht="14.4">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -857,8 +911,20 @@
       <c r="D18" s="4">
         <v>1</v>
       </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>80.989999999999995</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" ht="14.4">
+    <row r="19" spans="1:10" ht="14.4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -871,90 +937,37 @@
       <c r="D19" s="1">
         <v>9</v>
       </c>
+      <c r="I19">
+        <f>SUM($I$12:$I$18)</f>
+        <v>241.67000000000002</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" ht="14.4"/>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1">
-        <v>5</v>
+    <row r="20" spans="1:10" ht="14.4">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>9.69</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>30</v>
-      </c>
-      <c r="D22" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>89.99</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>9.69</v>
-      </c>
-      <c r="D25" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C26">
-        <f>SUM($C$21:$C$25)</f>
-        <v>149.68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>

--- a/cells.xlsx
+++ b/cells.xlsx
@@ -1,80 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deboltm\Documents\GitHub\ugamer.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Wishlist\ugamer.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25719753-FCF5-44F0-8659-6BA106606101}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7752" windowHeight="6516"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7755" windowHeight="6510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Want" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
-  <si>
-    <t>power strip</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>gba replacement battery</t>
   </si>
   <si>
-    <t>phone arm</t>
-  </si>
-  <si>
     <t>pop socket</t>
   </si>
   <si>
-    <t>palms t shirt</t>
-  </si>
-  <si>
     <t>tv leds</t>
   </si>
   <si>
     <t>switch stand</t>
   </si>
   <si>
-    <t>type c to hdmi</t>
-  </si>
-  <si>
-    <t>white hoodie</t>
-  </si>
-  <si>
     <t>watch</t>
   </si>
   <si>
     <t>monitor</t>
   </si>
   <si>
-    <t>pokemon go plus</t>
-  </si>
-  <si>
     <t>gamecube adapter</t>
   </si>
   <si>
-    <t>computer</t>
-  </si>
-  <si>
-    <t>old skool vans</t>
-  </si>
-  <si>
-    <t>electric toothbrush</t>
-  </si>
-  <si>
     <t>joy-con stand</t>
   </si>
   <si>
-    <t>cloud amiibo</t>
-  </si>
-  <si>
     <t>vr headset</t>
   </si>
   <si>
@@ -90,82 +68,103 @@
     <t>Arrival Time</t>
   </si>
   <si>
-    <t>recoil starter set</t>
-  </si>
-  <si>
     <t>button up shirts</t>
   </si>
   <si>
-    <t>bluetooth mouse</t>
-  </si>
-  <si>
     <t>Items To Get While Shopping</t>
   </si>
   <si>
-    <t>BestBuy</t>
-  </si>
-  <si>
-    <t>GameStop</t>
-  </si>
-  <si>
-    <t>Tyrone Mall / Vans Store</t>
-  </si>
-  <si>
-    <t>TYRONE MALL</t>
-  </si>
-  <si>
-    <t>ANIME FIX</t>
-  </si>
-  <si>
-    <t>SEARS</t>
-  </si>
-  <si>
-    <t>bluetooth speaker</t>
-  </si>
-  <si>
-    <t>7.1 surround sound, bluetooth, over-the-ear headphones</t>
-  </si>
-  <si>
-    <t>Phone Skin</t>
-  </si>
-  <si>
     <t>Bluetooth Adapter</t>
   </si>
   <si>
-    <t>Screen Protector</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
-    <t>BestBuy (ONLINE)</t>
-  </si>
-  <si>
-    <t>gift card</t>
-  </si>
-  <si>
-    <t>skyrocket</t>
-  </si>
-  <si>
-    <t>eBay</t>
-  </si>
-  <si>
-    <t>Sears</t>
-  </si>
-  <si>
-    <t>PopSocket</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>blackout curtains</t>
+  </si>
+  <si>
+    <t>bluetooth aux</t>
+  </si>
+  <si>
+    <t>bluetooth usb</t>
+  </si>
+  <si>
+    <t>curtain rod</t>
+  </si>
+  <si>
+    <t>diablo 3</t>
+  </si>
+  <si>
+    <t>donkey kong</t>
+  </si>
+  <si>
+    <t>flandre nendo</t>
+  </si>
+  <si>
+    <t>gamecube controller</t>
+  </si>
+  <si>
+    <t>hyrule warriors</t>
+  </si>
+  <si>
+    <t>joy con</t>
+  </si>
+  <si>
+    <t>joy con skin</t>
+  </si>
+  <si>
+    <t>link botw nendo</t>
+  </si>
+  <si>
+    <t>lucina figma</t>
+  </si>
+  <si>
+    <t>marx plush</t>
+  </si>
+  <si>
+    <t>micro SD</t>
+  </si>
+  <si>
+    <t>nes controllers</t>
+  </si>
+  <si>
+    <t>ngnl nendos</t>
+  </si>
+  <si>
+    <t>pokemon lets go eevee</t>
+  </si>
+  <si>
+    <t>pop socket mount</t>
+  </si>
+  <si>
+    <t>sora nendo</t>
+  </si>
+  <si>
+    <t>speckled shirt</t>
+  </si>
+  <si>
+    <t>super mario party</t>
+  </si>
+  <si>
+    <t>usb c cable</t>
+  </si>
+  <si>
+    <t>wireless car charger</t>
+  </si>
+  <si>
+    <t>wireless charger</t>
+  </si>
+  <si>
+    <t>your name nendos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -228,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -237,6 +236,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,474 +516,597 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J997"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:J19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="51.33203125" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="51.28515625" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="24" width="8.6640625" customWidth="1"/>
+    <col min="11" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.95" customHeight="1">
+    <row r="1" spans="1:9" ht="28.9" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>9999999</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>9.89</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>17.98</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>25.99</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.4">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>30.51</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>59.99</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>7.85</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="C8">
+        <v>8.98</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>9</v>
       </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.4">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3">
+      <c r="C9">
+        <v>9.98</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>7.99</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>9.99</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.4">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>10.99</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>12.99</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6">
-        <v>250</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>13.99</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.4">
-      <c r="G8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
       <c r="C10">
-        <v>19.95</v>
+        <v>11.98</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I10">
         <f>SUM(I2:I9)</f>
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>19.95</v>
+        <v>15.69</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>24.99</v>
+        <v>28.99</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.4">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
       <c r="B13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>28.6</v>
+        <v>29.99</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13">
-        <v>9</v>
-      </c>
-      <c r="I13">
-        <v>15.69</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.4">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14">
+        <v>66.77</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
         <v>190.3</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>9</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.4">
-      <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15">
-        <v>15</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.4">
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>841.3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>999</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>9</v>
-      </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.4">
+        <v>29.99</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>6.99</v>
       </c>
       <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17">
-        <v>9</v>
-      </c>
-      <c r="I17">
-        <v>89.99</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>9999999</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18">
-        <v>7</v>
-      </c>
-      <c r="I18">
-        <v>80.989999999999995</v>
-      </c>
-      <c r="J18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.4">
+        <v>19.95</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
       <c r="C19">
+        <v>53.44</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>59.99</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>10.99</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>59.99</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>59.99</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>12.99</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>13.99</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>89.99</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>9.69</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>4.21</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
         <v>239</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D31" s="1">
         <v>9</v>
       </c>
-      <c r="I19">
-        <f>SUM($I$12:$I$18)</f>
-        <v>241.67000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.4">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>9.69</v>
-      </c>
-      <c r="D20" s="1">
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="C32">
+        <v>15.7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>14.91</v>
+      </c>
+      <c r="D33" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>14.45</v>
+      </c>
+      <c r="D34" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>14.66</v>
+      </c>
+      <c r="D36" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>22.19</v>
+      </c>
+      <c r="D37" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>59.99</v>
+      </c>
+      <c r="D38" s="6">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>45</v>
+      </c>
+      <c r="D39" s="6">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -1931,13 +2054,11 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:D14">
-    <sortCondition ref="C2:C14"/>
-    <sortCondition descending="1" ref="B2:B14"/>
-    <sortCondition ref="D2:D14"/>
+  <sortState ref="A2:D39">
+    <sortCondition ref="D2:D39"/>
+    <sortCondition descending="1" ref="B2:B39"/>
+    <sortCondition ref="C2:C39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/cells.xlsx
+++ b/cells.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Wishlist\ugamer.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25719753-FCF5-44F0-8659-6BA106606101}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7691C7-CB4C-47F1-A9BE-F4F602D8DDA7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7755" windowHeight="6510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7755" windowHeight="4800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Want" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>gba replacement battery</t>
   </si>
@@ -101,9 +101,6 @@
     <t>donkey kong</t>
   </si>
   <si>
-    <t>flandre nendo</t>
-  </si>
-  <si>
     <t>gamecube controller</t>
   </si>
   <si>
@@ -158,7 +155,16 @@
     <t>wireless charger</t>
   </si>
   <si>
-    <t>your name nendos</t>
+    <t>tracer nendo</t>
+  </si>
+  <si>
+    <t>mercy nendo</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>headphones</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I995"/>
+  <dimension ref="A1:J995"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:D39"/>
+      <selection activeCell="D37" sqref="A1:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -536,7 +542,7 @@
     <col min="11" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.9" customHeight="1">
+    <row r="1" spans="1:10" ht="28.9" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -553,7 +559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -567,9 +573,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -582,7 +588,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -596,89 +602,89 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>25.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>30.51</v>
+        <v>25.99</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>59.99</v>
+        <v>30.51</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>8.98</v>
+        <v>58.99</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>9.98</v>
+        <v>179.99</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>11.98</v>
+        <v>8.98</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -691,100 +697,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>15.69</v>
+        <v>9.98</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12">
-        <v>28.99</v>
+        <v>15.69</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13">
-        <v>29.99</v>
+        <v>28.99</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>190.3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14">
-        <v>66.77</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>29.99</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>239</v>
+      </c>
+      <c r="J14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>190.3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>66.77</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>10.99</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
       <c r="C16">
-        <v>29.99</v>
+        <v>14.99</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="J16" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>6.99</v>
+        <v>29.99</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -792,13 +846,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18">
-        <v>19.95</v>
+        <v>6.99</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -806,13 +860,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
       <c r="C19">
-        <v>53.44</v>
+        <v>17.63</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -820,13 +874,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20">
-        <v>59.99</v>
+        <v>52.51</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -834,13 +888,13 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
       <c r="C21">
-        <v>10.99</v>
+        <v>59.99</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -848,13 +902,13 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22">
-        <v>59.99</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -868,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>59.99</v>
+        <v>44.99</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -876,13 +930,13 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>12.99</v>
+        <v>59.99</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -890,13 +944,13 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25">
-        <v>13.99</v>
+        <v>12.95</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -904,97 +958,97 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
         <v>4</v>
       </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
       <c r="C26">
-        <v>89.99</v>
+        <v>15.99</v>
       </c>
       <c r="D26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>89.99</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>13</v>
+      <c r="A28" t="s">
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>9.99</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A29" t="s">
-        <v>0</v>
+      <c r="A29" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>9.69</v>
+        <v>7.99</v>
       </c>
       <c r="D29" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>4.21</v>
+        <v>9.99</v>
       </c>
       <c r="D30" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>4.95</v>
+      </c>
+      <c r="D31" s="1">
         <v>7</v>
-      </c>
-      <c r="C31">
-        <v>239</v>
-      </c>
-      <c r="D31" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>15.7</v>
+        <v>14.91</v>
       </c>
       <c r="D32" s="1">
         <v>20</v>
@@ -1002,13 +1056,13 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>14.91</v>
+        <v>15.03</v>
       </c>
       <c r="D33" s="1">
         <v>20</v>
@@ -1016,13 +1070,13 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>14.45</v>
+        <v>14.91</v>
       </c>
       <c r="D34" s="1">
         <v>20</v>
@@ -1033,71 +1087,45 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C35">
-        <v>18.690000000000001</v>
+        <v>22.69</v>
       </c>
       <c r="D35" s="1">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>14.66</v>
-      </c>
-      <c r="D36" s="1">
-        <v>20</v>
+        <v>59.99</v>
+      </c>
+      <c r="D36" s="6">
+        <v>43452</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>22.19</v>
-      </c>
-      <c r="D37" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
-      <c r="C38">
-        <v>59.99</v>
-      </c>
-      <c r="D38" s="6">
+        <v>45</v>
+      </c>
+      <c r="D37" s="6">
         <v>43452</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>45</v>
-      </c>
-      <c r="D39" s="6">
-        <v>43452</v>
-      </c>
-    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="40" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="41" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="42" spans="1:4" ht="15.75" customHeight="1"/>
@@ -2055,10 +2083,10 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:D39">
-    <sortCondition ref="D2:D39"/>
-    <sortCondition descending="1" ref="B2:B39"/>
-    <sortCondition ref="C2:C39"/>
+  <sortState ref="A2:D37">
+    <sortCondition ref="D2:D37"/>
+    <sortCondition descending="1" ref="B2:B37"/>
+    <sortCondition ref="C2:C37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/cells.xlsx
+++ b/cells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Wishlist\ugamer.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7691C7-CB4C-47F1-A9BE-F4F602D8DDA7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0AF518-EC2D-477B-9259-76C993C3053C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7755" windowHeight="4800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,9 +131,6 @@
     <t>ngnl nendos</t>
   </si>
   <si>
-    <t>pokemon lets go eevee</t>
-  </si>
-  <si>
     <t>pop socket mount</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>headphones</t>
+  </si>
+  <si>
+    <t>blackwing sharpener</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -243,6 +243,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D37" sqref="A1:D37"/>
     </sheetView>
   </sheetViews>
@@ -560,30 +563,30 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>9999999</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
+      <c r="C2" s="7">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="7">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>9.89</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="7">
+        <v>15.99</v>
+      </c>
+      <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="G3" s="3"/>
@@ -604,89 +607,89 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>19.989999999999998</v>
+        <v>25.99</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>25.99</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="7">
+        <v>31.2</v>
+      </c>
+      <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>30.51</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="7">
+        <v>57.99</v>
+      </c>
+      <c r="D7" s="8">
         <v>2</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>58.99</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
+        <v>59.99</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43452</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>179.99</v>
+        <v>89.99</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>8.98</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="7">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>178.99</v>
+      </c>
+      <c r="D10" s="8">
         <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -699,27 +702,27 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>9999999</v>
+      </c>
+      <c r="D11" s="4">
         <v>1</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>9.98</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12">
-        <v>15.69</v>
+        <v>8.98</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -728,13 +731,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13">
-        <v>28.99</v>
+        <v>9.99</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -753,17 +756,17 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="7">
         <v>9</v>
       </c>
-      <c r="C14">
-        <v>29.99</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
+      <c r="C14" s="7">
+        <v>10.99</v>
+      </c>
+      <c r="D14" s="8">
+        <v>5</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -780,15 +783,15 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>66.77</v>
-      </c>
-      <c r="D15" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8">
         <v>2</v>
       </c>
       <c r="G15" t="s">
@@ -805,16 +808,16 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>14.99</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="D16" s="8">
         <v>2</v>
       </c>
       <c r="G16" t="s">
@@ -831,98 +834,98 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>29.99</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="A17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="7">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>6.99</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="7">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7">
+        <v>24.99</v>
+      </c>
+      <c r="D18" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>17.63</v>
-      </c>
-      <c r="D19" s="1">
+        <v>68.25</v>
+      </c>
+      <c r="D19" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>52.51</v>
+        <v>9.99</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>59.99</v>
+        <v>14.99</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>34</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
+      <c r="A22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="7">
+        <v>8</v>
+      </c>
+      <c r="C22" s="7">
+        <v>21.89</v>
+      </c>
+      <c r="D22" s="8">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>44.99</v>
+        <v>29.99</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -930,189 +933,189 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>6.99</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="7">
+        <v>7</v>
+      </c>
+      <c r="C25" s="7">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="D25" s="8">
         <v>5</v>
       </c>
-      <c r="C24">
-        <v>59.99</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>12.95</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>15.99</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="A26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="7">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="D26" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <v>89.99</v>
-      </c>
-      <c r="D27" s="1">
-        <v>5</v>
+      <c r="A27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7">
+        <v>48.95</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>9.99</v>
+        <v>14.91</v>
       </c>
       <c r="D28" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>13</v>
+      <c r="A29" t="s">
+        <v>42</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>7.99</v>
+        <v>15.03</v>
       </c>
       <c r="D29" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>9.99</v>
+        <v>4.95</v>
       </c>
       <c r="D30" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="7">
         <v>5</v>
       </c>
-      <c r="C31">
-        <v>4.95</v>
-      </c>
-      <c r="D31" s="1">
-        <v>7</v>
+      <c r="C31" s="7">
+        <v>19.88</v>
+      </c>
+      <c r="D31" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>14.91</v>
-      </c>
-      <c r="D32" s="1">
-        <v>20</v>
+      <c r="A32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5</v>
+      </c>
+      <c r="C32" s="7">
+        <v>32.74</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>15.03</v>
-      </c>
-      <c r="D33" s="1">
-        <v>20</v>
+      <c r="A33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="7">
+        <v>5</v>
+      </c>
+      <c r="C33" s="7">
+        <v>50</v>
+      </c>
+      <c r="D33" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
       <c r="C34">
-        <v>14.91</v>
+        <v>59.99</v>
       </c>
       <c r="D34" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>22.69</v>
+        <v>12.95</v>
       </c>
       <c r="D35" s="1">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>59.99</v>
-      </c>
-      <c r="D36" s="6">
-        <v>43452</v>
+      <c r="A36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="7">
+        <v>4</v>
+      </c>
+      <c r="C36" s="7">
+        <v>13.99</v>
+      </c>
+      <c r="D36" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -2084,9 +2087,9 @@
     <row r="995" ht="15.75" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:D37">
-    <sortCondition ref="D2:D37"/>
     <sortCondition descending="1" ref="B2:B37"/>
     <sortCondition ref="C2:C37"/>
+    <sortCondition ref="D2:D37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/cells.xlsx
+++ b/cells.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Wishlist\ugamer.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deboltm\Documents\GitHub\ugamer.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0AF518-EC2D-477B-9259-76C993C3053C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7755" windowHeight="4800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7760" windowHeight="4800"/>
   </bookViews>
   <sheets>
     <sheet name="Want" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>gba replacement battery</t>
   </si>
@@ -165,12 +164,18 @@
   </si>
   <si>
     <t>blackwing sharpener</t>
+  </si>
+  <si>
+    <t>crash bandicoot</t>
+  </si>
+  <si>
+    <t>megaman 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -233,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -246,6 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,24 +531,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="A1:D37"/>
+      <selection sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="51.28515625" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="51.26953125" customWidth="1"/>
+    <col min="8" max="9" width="8.7265625" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="24" width="8.7109375" customWidth="1"/>
+    <col min="11" max="24" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.9" customHeight="1">
@@ -562,7 +568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="14.5">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
@@ -576,36 +582,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:10" ht="14.5">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>17.98</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.5">
+      <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B4" s="7">
         <v>10</v>
       </c>
-      <c r="C3" s="7">
-        <v>15.99</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>17.98</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="C4" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -619,7 +625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="14.5">
       <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
@@ -627,14 +633,14 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>31.2</v>
+        <v>25.99</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="14.5">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -642,14 +648,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>57.99</v>
+        <v>57.75</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="14.5">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -664,7 +670,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="14.5">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -679,7 +685,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="14.5">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
@@ -700,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="14.5">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -714,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="14.5">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -729,7 +735,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="14.5">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -755,18 +761,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="7">
+    <row r="14" spans="1:10" ht="14.5">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="C14" s="7">
-        <v>10.99</v>
+      <c r="C14">
+        <v>11</v>
       </c>
       <c r="D14" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -781,15 +787,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:10" ht="14.5">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>11</v>
+      <c r="C15" s="7">
+        <v>16.760000000000002</v>
       </c>
       <c r="D15" s="8">
         <v>2</v>
@@ -807,15 +813,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="14.5">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B16" s="7">
         <v>9</v>
       </c>
       <c r="C16" s="7">
-        <v>16.760000000000002</v>
+        <v>20.99</v>
       </c>
       <c r="D16" s="8">
         <v>2</v>
@@ -833,311 +839,329 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:10" ht="14.5">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B17" s="7">
         <v>9</v>
       </c>
       <c r="C17" s="7">
-        <v>17.989999999999998</v>
+        <v>24.99</v>
       </c>
       <c r="D17" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>45</v>
+      </c>
+      <c r="J17" s="6">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.5">
       <c r="A18" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B18" s="7">
         <v>9</v>
       </c>
       <c r="C18" s="7">
-        <v>24.99</v>
-      </c>
-      <c r="D18" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5</v>
+      </c>
+      <c r="I18" s="7">
+        <v>19.88</v>
+      </c>
+      <c r="J18" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.5">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>68.25</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>9.99</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>32.74</v>
+      </c>
+      <c r="J19" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.5">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>8</v>
       </c>
       <c r="C20">
-        <v>9.99</v>
+        <v>14.99</v>
       </c>
       <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="I20">
+        <v>14.91</v>
+      </c>
+      <c r="J20" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>6.99</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>15.03</v>
+      </c>
+      <c r="J21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="7">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="7">
+        <v>9</v>
+      </c>
+      <c r="I22" s="7">
+        <v>10.99</v>
+      </c>
+      <c r="J22" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7">
+        <v>13.99</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="7">
         <v>8</v>
       </c>
-      <c r="C21">
-        <v>14.99</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="7">
+      <c r="I23" s="7">
+        <v>21.89</v>
+      </c>
+      <c r="J23" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24">
         <v>8</v>
       </c>
-      <c r="C22" s="7">
-        <v>21.89</v>
-      </c>
-      <c r="D22" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23">
+      <c r="I24">
         <v>29.99</v>
       </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>6.99</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>13</v>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B25" s="7">
         <v>7</v>
       </c>
       <c r="C25" s="7">
-        <v>8.7899999999999991</v>
+        <v>48.25</v>
       </c>
       <c r="D25" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="7">
+      <c r="C26">
+        <v>4.95</v>
+      </c>
+      <c r="D26" s="1">
         <v>7</v>
       </c>
-      <c r="C26" s="7">
-        <v>17.489999999999998</v>
-      </c>
-      <c r="D26" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B27" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" s="7">
-        <v>48.95</v>
+        <v>29.99</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>14.91</v>
-      </c>
-      <c r="D28" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>15.03</v>
-      </c>
-      <c r="D29" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="7">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7">
+        <v>5</v>
+      </c>
+      <c r="C29" s="7">
+        <v>54.38</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>4.95</v>
+        <v>12.95</v>
       </c>
       <c r="D30" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B31" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="7">
-        <v>19.88</v>
+        <v>59.4</v>
       </c>
       <c r="D31" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="7">
-        <v>5</v>
-      </c>
-      <c r="C32" s="7">
-        <v>32.74</v>
-      </c>
-      <c r="D32" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="7">
-        <v>5</v>
-      </c>
-      <c r="C33" s="7">
-        <v>50</v>
-      </c>
-      <c r="D33" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>59.99</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>12.95</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="7">
-        <v>4</v>
-      </c>
-      <c r="C36" s="7">
-        <v>13.99</v>
-      </c>
-      <c r="D36" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>45</v>
-      </c>
-      <c r="D37" s="6">
-        <v>43452</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2086,10 +2110,10 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:D37">
-    <sortCondition descending="1" ref="B2:B37"/>
-    <sortCondition ref="C2:C37"/>
-    <sortCondition ref="D2:D37"/>
+  <sortState ref="A2:D31">
+    <sortCondition descending="1" ref="B2:B31"/>
+    <sortCondition ref="C2:C31"/>
+    <sortCondition ref="D2:D31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/cells.xlsx
+++ b/cells.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deboltm\Documents\GitHub\ugamer.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Wishlist\ugamer.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAC81E7-237D-43E9-98E8-EA37C9A4BDF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7760" windowHeight="4800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7755" windowHeight="4800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Want" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>gba replacement battery</t>
   </si>
@@ -170,12 +172,18 @@
   </si>
   <si>
     <t>megaman 11</t>
+  </si>
+  <si>
+    <t>minecraft switch</t>
+  </si>
+  <si>
+    <t>switch cases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -531,24 +539,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="51.26953125" customWidth="1"/>
-    <col min="8" max="9" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="51.28515625" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="24" width="8.7265625" customWidth="1"/>
+    <col min="11" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.9" customHeight="1">
@@ -568,132 +576,132 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.5">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>9999999</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="7">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.5">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>17.98</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.5">
-      <c r="A4" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="B4" s="7">
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19.989999999999998</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>25.99</v>
+      <c r="C5" s="7">
+        <v>16.989999999999998</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.5">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6" s="7">
-        <v>25.99</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6">
+        <v>17.98</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="14.5">
+    <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" s="7">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>57.75</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="14.5">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:10">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>59.99</v>
-      </c>
-      <c r="D8" s="6">
-        <v>43452</v>
+      <c r="C8" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="14.5">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:10">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>89.99</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
+      <c r="C9" s="7">
+        <v>25.44</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="14.5">
+    <row r="10" spans="1:10">
       <c r="A10" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B10" s="7">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>178.99</v>
+        <v>54.95</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
@@ -706,21 +714,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.5">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:10">
+      <c r="A11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>9999999</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.5">
+      <c r="C11" s="7">
+        <v>178.99</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -735,7 +743,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="14.5">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -761,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.5">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -787,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.5">
+    <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -795,7 +803,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="7">
-        <v>16.760000000000002</v>
+        <v>15.76</v>
       </c>
       <c r="D15" s="8">
         <v>2</v>
@@ -813,7 +821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.5">
+    <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -821,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="7">
-        <v>20.99</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="D16" s="8">
         <v>2</v>
@@ -839,17 +847,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.5">
+    <row r="17" spans="1:10">
       <c r="A17" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7">
         <v>9</v>
       </c>
       <c r="C17" s="7">
-        <v>24.99</v>
-      </c>
-      <c r="D17" s="8">
+        <v>68</v>
+      </c>
+      <c r="D17" s="10">
         <v>2</v>
       </c>
       <c r="G17" t="s">
@@ -865,17 +873,17 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.5">
+    <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B18" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="7">
-        <v>68</v>
-      </c>
-      <c r="D18" s="10">
+        <v>12.99</v>
+      </c>
+      <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -891,18 +899,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.5">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>9.99</v>
+        <v>6.99</v>
       </c>
       <c r="D19" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>41</v>
@@ -917,15 +925,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.5">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>14.99</v>
+        <v>12.95</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -944,16 +952,16 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="7">
         <v>7</v>
       </c>
-      <c r="C21">
-        <v>6.99</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="7">
+        <v>13.99</v>
+      </c>
+      <c r="D21" s="8">
         <v>2</v>
       </c>
       <c r="G21" t="s">
@@ -970,17 +978,17 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>13</v>
+      <c r="A22" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B22" s="7">
         <v>7</v>
       </c>
       <c r="C22" s="7">
-        <v>8.7899999999999991</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="D22" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>36</v>
@@ -997,13 +1005,13 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B23" s="7">
         <v>7</v>
       </c>
       <c r="C23" s="7">
-        <v>13.99</v>
+        <v>48.15</v>
       </c>
       <c r="D23" s="8">
         <v>2</v>
@@ -1023,13 +1031,13 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B24" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" s="7">
-        <v>17.489999999999998</v>
+        <v>29.99</v>
       </c>
       <c r="D24" s="8">
         <v>2</v>
@@ -1049,119 +1057,145 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B25" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C25" s="7">
-        <v>48.25</v>
+        <v>29.99</v>
       </c>
       <c r="D25" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>4.95</v>
-      </c>
-      <c r="D26" s="1">
-        <v>7</v>
+      <c r="A26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="7">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7">
+        <v>58.72</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B27" s="7">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>59.4</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>89.99</v>
+      </c>
+      <c r="D28" s="1">
         <v>5</v>
       </c>
-      <c r="C27" s="7">
-        <v>29.99</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="7">
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="7">
+        <v>7</v>
+      </c>
+      <c r="C29" s="7">
+        <v>7.99</v>
+      </c>
+      <c r="D29" s="8">
         <v>5</v>
-      </c>
-      <c r="C28" s="7">
-        <v>29.99</v>
-      </c>
-      <c r="D28" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="7">
-        <v>5</v>
-      </c>
-      <c r="C29" s="7">
-        <v>54.38</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>12.95</v>
+        <v>9.99</v>
       </c>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="7">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
       </c>
       <c r="C31" s="7">
-        <v>59.4</v>
+        <v>1.49</v>
       </c>
       <c r="D31" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>4.95</v>
+      </c>
+      <c r="D32" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>59.99</v>
+      </c>
+      <c r="D33" s="6">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2110,10 +2144,10 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:D31">
-    <sortCondition descending="1" ref="B2:B31"/>
-    <sortCondition ref="C2:C31"/>
-    <sortCondition ref="D2:D31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
+    <sortCondition ref="D2:D33"/>
+    <sortCondition descending="1" ref="B2:B33"/>
+    <sortCondition ref="C2:C33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
